--- a/va_facility_data_2025-02-20/Winchester VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Winchester%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Winchester VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Winchester%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R66a285e6c81a45908550f6a8308d4e81"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R06edc52a7aad4dbc9f3a2c6931e984b2"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1d1fcdb2ee0a43738889f10cfbf1191d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfb61e0741b30486c963f2fd528587cdb"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb91f2bdfa0a6415aa46f50aff4df7c0a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R470955484ec842b593556af47f9bba59"/>
   </x:sheets>
 </x:workbook>
 </file>
